--- a/VT_REG_PRI_V01_AGR.xlsx
+++ b/VT_REG_PRI_V01_AGR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\Poprawy 2026\BASIC_AGR\Basic_AGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\2. 2026\BASIC_AGR\Basic_AGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DAA9F1-8A3F-4427-B1C8-16171AE78F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B56AE-3237-4B02-B2FA-099CC86A3D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DemTechs_TPS" sheetId="136" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="139">
   <si>
     <t>CommName</t>
   </si>
@@ -349,9 +349,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Demand</t>
-  </si>
-  <si>
     <t>COST</t>
   </si>
   <si>
@@ -364,18 +361,12 @@
     <t>PJ</t>
   </si>
   <si>
-    <t>Attribute</t>
-  </si>
-  <si>
     <t>DEM</t>
   </si>
   <si>
     <t>kt</t>
   </si>
   <si>
-    <t>*Unit</t>
-  </si>
-  <si>
     <t>STOCK</t>
   </si>
   <si>
@@ -412,9 +403,6 @@
     <t>IPI</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>AGR_LIV_MANURE_CAT_DAIRY</t>
   </si>
   <si>
@@ -692,6 +680,36 @@
   </si>
   <si>
     <t>PLN /m3</t>
+  </si>
+  <si>
+    <t>~FI_T:DEMAND</t>
+  </si>
+  <si>
+    <t>REG1</t>
+  </si>
+  <si>
+    <t>\I:</t>
+  </si>
+  <si>
+    <t>* Przynależność do zbioru dóbr</t>
+  </si>
+  <si>
+    <t>Nazwa dobra</t>
+  </si>
+  <si>
+    <t>Opis dobra</t>
+  </si>
+  <si>
+    <t>Jednostka</t>
+  </si>
+  <si>
+    <t>Znak w równaniu bilansu</t>
+  </si>
+  <si>
+    <t>Monitorowanie szczytu</t>
+  </si>
+  <si>
+    <t>Wskaźnik energii elektrycznej</t>
   </si>
 </sst>
 </file>
@@ -700,9 +718,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -795,8 +813,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF010000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,8 +928,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1001,8 +1049,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1024,8 +1094,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1062,16 +1133,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1117,31 +1188,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="14" borderId="0" xfId="17" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="17" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="12" borderId="0" xfId="17" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="17" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="17" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="17" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="17" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="17" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="14" borderId="0" xfId="17" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="17" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17"/>
+    <xf numFmtId="4" fontId="1" fillId="12" borderId="0" xfId="17" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="17" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="17" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="17" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="17" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="17" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="17" applyFill="1" applyBorder="1"/>
@@ -1149,12 +1217,25 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="17" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="20% — akcent 5" xfId="1" builtinId="46"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
     <cellStyle name="Normal 10" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 10 15 2" xfId="21" xr:uid="{D2BD69F3-0BD5-4B23-98FE-229660722631}"/>
     <cellStyle name="Normal 10 2" xfId="15" xr:uid="{5FF9E568-959D-4ED9-B546-1289345A4812}"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal 2 2" xfId="18" xr:uid="{6E8C98F7-D607-4ED8-9830-9C2429218A93}"/>
@@ -1669,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:AD88"/>
+  <dimension ref="B1:AD85"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView topLeftCell="A47" zoomScale="54" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1717,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -1726,19 +1807,19 @@
         <v>6</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>12</v>
@@ -1761,22 +1842,21 @@
     </row>
     <row r="3" spans="2:30">
       <c r="B3" s="70" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="71"/>
       <c r="F3" s="72">
         <v>2391.308</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="72">
         <v>1</v>
       </c>
-      <c r="J3" s="75">
+      <c r="J3" s="73">
         <v>1</v>
       </c>
       <c r="N3" s="18" t="s">
@@ -1801,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X3" s="18" t="s">
         <v>10</v>
@@ -1825,864 +1905,867 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:30" ht="28.2" customHeight="1">
-      <c r="B4" s="76"/>
+    <row r="4" spans="2:30" ht="28.2" customHeight="1" thickBot="1">
+      <c r="B4" s="74"/>
       <c r="C4" s="68"/>
-      <c r="D4" s="77" t="s">
-        <v>58</v>
+      <c r="D4" s="75" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="71"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="78">
+      <c r="F4" s="23"/>
+      <c r="G4" s="76">
         <v>1</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="31"/>
-      <c r="N4" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="24" t="s">
+      <c r="N4" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="X4" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="27"/>
-      <c r="X4" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA4" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB4" s="24" t="s">
-        <v>38</v>
-      </c>
       <c r="AC4" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AD4" s="27"/>
     </row>
     <row r="5" spans="2:30">
-      <c r="B5" s="76"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="71"/>
       <c r="D5" s="71"/>
       <c r="E5" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+        <v>63</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="31"/>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="29"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="27"/>
       <c r="X5" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA5" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AB5" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AC5" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD5" s="29"/>
     </row>
     <row r="6" spans="2:30">
-      <c r="B6" s="76"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
       <c r="E6" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="79">
+        <v>36</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="77">
         <v>7.4</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="31"/>
-      <c r="N6" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="31"/>
+      <c r="N6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="29"/>
       <c r="X6" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y6" s="23" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z6" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA6" s="23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AB6" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC6" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AD6" s="31"/>
     </row>
     <row r="7" spans="2:30">
       <c r="B7" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+        <v>90</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="72">
         <v>3887.5880000000002</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="72">
         <v>1</v>
       </c>
-      <c r="J7" s="75">
+      <c r="J7" s="73">
         <v>1</v>
       </c>
-      <c r="N7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="29"/>
+      <c r="N7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="31"/>
       <c r="X7" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AB7" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AC7" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD7" s="29"/>
     </row>
     <row r="8" spans="2:30">
-      <c r="B8" s="82"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="78">
+      <c r="B8" s="79"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="78"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="76">
         <v>1</v>
       </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="29"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="N8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="31"/>
+      <c r="N8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="29"/>
       <c r="X8" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z8" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB8" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AC8" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD8" s="31"/>
     </row>
     <row r="9" spans="2:30">
-      <c r="B9" s="82"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
+        <v>64</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="29"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="N9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="22" t="s">
+      <c r="N9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="29"/>
+      <c r="R9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="31"/>
       <c r="X9" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y9" s="22" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AA9" s="22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC9" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" s="29"/>
+    </row>
+    <row r="10" spans="2:30">
+      <c r="B10" s="79"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="AC9" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD9" s="29"/>
-    </row>
-    <row r="10" spans="2:30">
-      <c r="B10" s="82"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="79">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="77">
         <v>2.9279999999999999</v>
       </c>
-      <c r="I10" s="81"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="29"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="N10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="31"/>
+      <c r="N10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="29"/>
       <c r="X10" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y10" s="23" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z10" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AA10" s="23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AB10" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AC10" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD10" s="31"/>
     </row>
     <row r="11" spans="2:30">
       <c r="B11" s="70" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="68"/>
       <c r="E11" s="71"/>
       <c r="F11" s="72">
         <v>11727.41</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="74"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="72">
         <v>1</v>
       </c>
-      <c r="J11" s="75">
+      <c r="J11" s="73">
         <v>1</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="N11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="29"/>
+      <c r="N11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="31"/>
       <c r="X11" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y11" s="22" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z11" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA11" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AB11" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AC11" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD11" s="29"/>
     </row>
     <row r="12" spans="2:30">
-      <c r="B12" s="76"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="68"/>
-      <c r="D12" s="77" t="s">
-        <v>58</v>
+      <c r="D12" s="75" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="71"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="78">
+      <c r="F12" s="23"/>
+      <c r="G12" s="76">
         <v>1</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="31"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="N12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="31"/>
+      <c r="N12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="29"/>
       <c r="X12" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z12" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AA12" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC12" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD12" s="31"/>
     </row>
     <row r="13" spans="2:30">
-      <c r="B13" s="76"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="71"/>
       <c r="D13" s="71"/>
       <c r="E13" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
+        <v>65</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="31"/>
-      <c r="N13" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="29"/>
+      <c r="N13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="31"/>
       <c r="X13" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y13" s="22" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z13" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AB13" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC13" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD13" s="29"/>
     </row>
     <row r="14" spans="2:30">
-      <c r="B14" s="76"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
       <c r="E14" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="79">
+        <v>40</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="77">
         <v>0.67500000000000004</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="31"/>
-      <c r="N14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="31"/>
+      <c r="N14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="29"/>
       <c r="X14" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y14" s="23" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="Z14" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AA14" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AB14" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC14" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD14" s="31"/>
     </row>
     <row r="15" spans="2:30">
       <c r="B15" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
+        <v>94</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="72">
         <v>205774.511</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="72">
         <v>1</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="73">
         <v>1</v>
       </c>
-      <c r="N15" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="22" t="s">
+      <c r="N15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="31"/>
+      <c r="X15" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD15" s="29"/>
+    </row>
+    <row r="16" spans="2:30">
+      <c r="B16" s="83"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="80"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="76">
+        <v>1</v>
+      </c>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="84"/>
+      <c r="N16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="29"/>
+      <c r="X16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD16" s="31"/>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="83"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="84"/>
+      <c r="N17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="31"/>
+      <c r="X17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z17" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA17" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD17" s="29"/>
+    </row>
+    <row r="18" spans="2:30">
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88">
+        <v>1.125E-2</v>
+      </c>
+      <c r="I18" s="87"/>
+      <c r="J18" s="89"/>
+      <c r="N18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="29"/>
+      <c r="X18" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA18" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD18" s="31"/>
+    </row>
+    <row r="19" spans="2:30">
+      <c r="N19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="31"/>
+      <c r="X19" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z19" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA19" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD19" s="37"/>
+    </row>
+    <row r="20" spans="2:30">
+      <c r="N20" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="29"/>
-      <c r="X15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z15" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA15" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD15" s="29"/>
-    </row>
-    <row r="16" spans="2:30">
-      <c r="B16" s="86"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="78">
-        <v>1</v>
-      </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="87"/>
-      <c r="N16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="23" t="s">
+      <c r="O20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Q16" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="31"/>
-      <c r="X16" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z16" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA16" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD16" s="31"/>
-    </row>
-    <row r="17" spans="2:30">
-      <c r="B17" s="86"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="87"/>
-      <c r="N17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="22" t="s">
+      <c r="Q20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="29"/>
-      <c r="X17" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z17" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA17" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD17" s="29"/>
-    </row>
-    <row r="18" spans="2:30">
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91">
-        <v>1.125E-2</v>
-      </c>
-      <c r="I18" s="90"/>
-      <c r="J18" s="92"/>
-      <c r="N18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="23" t="s">
+      <c r="R20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="Q18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="31"/>
-      <c r="X18" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y18" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z18" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA18" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD18" s="31"/>
-    </row>
-    <row r="19" spans="2:30">
-      <c r="N19" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="29"/>
-      <c r="X19" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y19" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z19" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA19" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB19" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC19" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD19" s="37"/>
-    </row>
-    <row r="20" spans="2:30">
-      <c r="N20" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="31"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="29"/>
     </row>
     <row r="21" spans="2:30">
       <c r="D21" s="5" t="s">
@@ -2693,31 +2776,31 @@
       <c r="H21" s="5"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-      <c r="N21" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="R21" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="29"/>
+      <c r="N21" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="31"/>
     </row>
     <row r="22" spans="2:30">
       <c r="B22" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>5</v>
@@ -2726,48 +2809,48 @@
         <v>6</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K22" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="31"/>
+      <c r="R22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="29"/>
     </row>
     <row r="23" spans="2:30">
       <c r="B23" s="43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -2783,30 +2866,30 @@
       <c r="K23" s="40">
         <v>1</v>
       </c>
-      <c r="N23" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="R23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="29"/>
+      <c r="N23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="31"/>
     </row>
     <row r="24" spans="2:30">
       <c r="B24" s="44"/>
       <c r="C24" s="61"/>
       <c r="D24" s="62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="61"/>
@@ -2817,31 +2900,31 @@
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
       <c r="K24" s="49"/>
-      <c r="N24" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="31"/>
+      <c r="N24" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="29"/>
     </row>
     <row r="25" spans="2:30">
       <c r="B25" s="44"/>
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
       <c r="E25" s="63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F25" s="61"/>
       <c r="G25" s="61"/>
@@ -2852,31 +2935,31 @@
       </c>
       <c r="K25" s="49"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="R25" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="29"/>
+      <c r="N25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R25" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="31"/>
     </row>
     <row r="26" spans="2:30">
       <c r="B26" s="44"/>
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
       <c r="E26" s="64" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
@@ -2887,31 +2970,31 @@
       <c r="J26" s="61"/>
       <c r="K26" s="49"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q26" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="R26" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="31"/>
+      <c r="N26" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="29"/>
     </row>
     <row r="27" spans="2:30">
       <c r="B27" s="44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
@@ -2928,30 +3011,30 @@
         <v>1</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R27" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="29"/>
+      <c r="N27" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R27" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="31"/>
     </row>
     <row r="28" spans="2:30">
       <c r="B28" s="44"/>
       <c r="C28" s="61"/>
       <c r="D28" s="62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E28" s="61"/>
       <c r="F28" s="61"/>
@@ -2963,31 +3046,31 @@
       <c r="J28" s="61"/>
       <c r="K28" s="49"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q28" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="31"/>
+      <c r="N28" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="29"/>
     </row>
     <row r="29" spans="2:30">
       <c r="B29" s="44"/>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
       <c r="E29" s="63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F29" s="61"/>
       <c r="G29" s="61"/>
@@ -2997,31 +3080,31 @@
         <v>4.4399999999999995</v>
       </c>
       <c r="K29" s="49"/>
-      <c r="N29" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="29"/>
+      <c r="N29" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="31"/>
     </row>
     <row r="30" spans="2:30">
       <c r="B30" s="44"/>
       <c r="C30" s="61"/>
       <c r="D30" s="61"/>
       <c r="E30" s="64" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F30" s="61"/>
       <c r="G30" s="61"/>
@@ -3031,31 +3114,31 @@
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
       <c r="K30" s="49"/>
-      <c r="N30" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q30" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="31"/>
+      <c r="N30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q30" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="29"/>
     </row>
     <row r="31" spans="2:30">
       <c r="B31" s="44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
@@ -3071,30 +3154,30 @@
       <c r="K31" s="41">
         <v>1</v>
       </c>
-      <c r="N31" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R31" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="29"/>
+      <c r="N31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P31" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="31"/>
     </row>
     <row r="32" spans="2:30">
       <c r="B32" s="44"/>
       <c r="C32" s="61"/>
       <c r="D32" s="62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
@@ -3105,31 +3188,31 @@
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
       <c r="K32" s="49"/>
-      <c r="N32" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P32" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q32" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R32" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="31"/>
+      <c r="N32" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="29"/>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="44"/>
       <c r="C33" s="61"/>
       <c r="D33" s="61"/>
       <c r="E33" s="63" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F33" s="61"/>
       <c r="G33" s="61"/>
@@ -3139,31 +3222,31 @@
         <v>7.2099999999999991</v>
       </c>
       <c r="K33" s="49"/>
-      <c r="N33" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P33" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="29"/>
+      <c r="N33" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="31"/>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="44"/>
       <c r="C34" s="61"/>
       <c r="D34" s="61"/>
       <c r="E34" s="64" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F34" s="61"/>
       <c r="G34" s="61"/>
@@ -3172,34 +3255,34 @@
       </c>
       <c r="I34" s="61"/>
       <c r="J34" s="67" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K34" s="49"/>
-      <c r="N34" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="P34" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q34" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="R34" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="34"/>
+      <c r="N34" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P34" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q34" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="29"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
@@ -3215,12 +3298,30 @@
       <c r="K35" s="41">
         <v>1</v>
       </c>
+      <c r="N35" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="R35" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="34"/>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="44"/>
       <c r="C36" s="61"/>
       <c r="D36" s="62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E36" s="61"/>
       <c r="F36" s="61"/>
@@ -3237,7 +3338,7 @@
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
       <c r="E37" s="63" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F37" s="61"/>
       <c r="G37" s="61"/>
@@ -3253,7 +3354,7 @@
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
       <c r="E38" s="64" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F38" s="61"/>
       <c r="G38" s="61"/>
@@ -3266,10 +3367,10 @@
     </row>
     <row r="39" spans="2:21">
       <c r="B39" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
@@ -3290,7 +3391,7 @@
       <c r="B40" s="44"/>
       <c r="C40" s="61"/>
       <c r="D40" s="62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E40" s="61"/>
       <c r="F40" s="61"/>
@@ -3307,7 +3408,7 @@
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
       <c r="E41" s="63" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F41" s="61"/>
       <c r="G41" s="61"/>
@@ -3323,7 +3424,7 @@
       <c r="C42" s="61"/>
       <c r="D42" s="61"/>
       <c r="E42" s="64" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F42" s="61"/>
       <c r="G42" s="61"/>
@@ -3336,10 +3437,10 @@
     </row>
     <row r="43" spans="2:21">
       <c r="B43" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D43" s="61"/>
       <c r="E43" s="61"/>
@@ -3360,7 +3461,7 @@
       <c r="B44" s="44"/>
       <c r="C44" s="61"/>
       <c r="D44" s="62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E44" s="61"/>
       <c r="F44" s="61"/>
@@ -3377,7 +3478,7 @@
       <c r="C45" s="61"/>
       <c r="D45" s="61"/>
       <c r="E45" s="63" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F45" s="61"/>
       <c r="G45" s="61"/>
@@ -3393,7 +3494,7 @@
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
       <c r="E46" s="64" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F46" s="61"/>
       <c r="G46" s="61"/>
@@ -3406,10 +3507,10 @@
     </row>
     <row r="47" spans="2:21">
       <c r="B47" s="44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C47" s="65" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
@@ -3430,7 +3531,7 @@
       <c r="B48" s="44"/>
       <c r="C48" s="61"/>
       <c r="D48" s="62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E48" s="61"/>
       <c r="F48" s="61"/>
@@ -3447,7 +3548,7 @@
       <c r="C49" s="61"/>
       <c r="D49" s="61"/>
       <c r="E49" s="63" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F49" s="61"/>
       <c r="G49" s="61"/>
@@ -3463,7 +3564,7 @@
       <c r="C50" s="61"/>
       <c r="D50" s="61"/>
       <c r="E50" s="64" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="61"/>
@@ -3476,10 +3577,10 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C51" s="65" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D51" s="61"/>
       <c r="E51" s="61"/>
@@ -3500,7 +3601,7 @@
       <c r="B52" s="44"/>
       <c r="C52" s="61"/>
       <c r="D52" s="62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E52" s="61"/>
       <c r="F52" s="61"/>
@@ -3517,7 +3618,7 @@
       <c r="C53" s="61"/>
       <c r="D53" s="61"/>
       <c r="E53" s="63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F53" s="61"/>
       <c r="G53" s="61"/>
@@ -3533,7 +3634,7 @@
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
       <c r="E54" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
@@ -3560,120 +3661,174 @@
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
     </row>
+    <row r="70" spans="2:20">
+      <c r="B70" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P70" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" ht="31.2">
+      <c r="B71" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+    </row>
+    <row r="72" spans="2:20">
+      <c r="B72" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51">
+        <v>0</v>
+      </c>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51">
+        <v>1</v>
+      </c>
+      <c r="N72" s="51"/>
+      <c r="O72" s="51">
+        <v>1</v>
+      </c>
+      <c r="P72" s="52"/>
+    </row>
     <row r="73" spans="2:20">
-      <c r="B73" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M73" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N73" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="O73" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P73" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="2:20" ht="31.2">
-      <c r="B74" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
+      <c r="B73" s="53"/>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="J73">
+        <v>3.9503432358734485E-2</v>
+      </c>
+      <c r="N73">
+        <v>0.14710689767898008</v>
+      </c>
+      <c r="P73" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20">
+      <c r="B74" s="53"/>
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="J74">
+        <v>8.4102126741297106E-3</v>
+      </c>
+      <c r="N74">
+        <v>0.14710689767898008</v>
+      </c>
+      <c r="P74" s="54">
+        <v>3</v>
+      </c>
     </row>
     <row r="75" spans="2:20">
-      <c r="B75" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51">
-        <v>0</v>
-      </c>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="L75" s="51"/>
-      <c r="M75" s="51">
-        <v>1</v>
-      </c>
-      <c r="N75" s="51"/>
-      <c r="O75" s="51">
-        <v>1</v>
-      </c>
-      <c r="P75" s="52"/>
+      <c r="B75" s="53"/>
+      <c r="D75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75">
+        <v>0.38854999999999995</v>
+      </c>
+      <c r="J75">
+        <v>2.1270586943794263E-2</v>
+      </c>
+      <c r="N75">
+        <v>0.11581521039763223</v>
+      </c>
+      <c r="P75" s="54">
+        <v>3</v>
+      </c>
     </row>
     <row r="76" spans="2:20">
       <c r="B76" s="53"/>
@@ -3684,7 +3839,7 @@
         <v>0.30590000000000001</v>
       </c>
       <c r="J76">
-        <v>3.9503432358734485E-2</v>
+        <v>6.5584749927887608E-3</v>
       </c>
       <c r="N76">
         <v>0.14710689767898008</v>
@@ -3696,13 +3851,13 @@
     <row r="77" spans="2:20">
       <c r="B77" s="53"/>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I77">
         <v>0.30590000000000001</v>
       </c>
       <c r="J77">
-        <v>8.4102126741297106E-3</v>
+        <v>2.3875705905262001E-2</v>
       </c>
       <c r="N77">
         <v>0.14710689767898008</v>
@@ -3714,16 +3869,16 @@
     <row r="78" spans="2:20">
       <c r="B78" s="53"/>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I78">
-        <v>0.38854999999999995</v>
+        <v>0.30590000000000001</v>
       </c>
       <c r="J78">
-        <v>2.1270586943794263E-2</v>
+        <v>6.3896829648978333E-3</v>
       </c>
       <c r="N78">
-        <v>0.11581521039763223</v>
+        <v>0.14710689767898008</v>
       </c>
       <c r="P78" s="54">
         <v>3</v>
@@ -3732,13 +3887,13 @@
     <row r="79" spans="2:20">
       <c r="B79" s="53"/>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I79">
         <v>0.30590000000000001</v>
       </c>
       <c r="J79">
-        <v>6.5584749927887608E-3</v>
+        <v>5.8006330714347756E-2</v>
       </c>
       <c r="N79">
         <v>0.14710689767898008</v>
@@ -3750,13 +3905,13 @@
     <row r="80" spans="2:20">
       <c r="B80" s="53"/>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I80">
         <v>0.30590000000000001</v>
       </c>
       <c r="J80">
-        <v>2.3875705905262001E-2</v>
+        <v>8.2023634476987304E-4</v>
       </c>
       <c r="N80">
         <v>0.14710689767898008</v>
@@ -3768,16 +3923,16 @@
     <row r="81" spans="2:16">
       <c r="B81" s="53"/>
       <c r="D81" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I81">
-        <v>0.30590000000000001</v>
+        <v>9.7849999999999993E-2</v>
       </c>
       <c r="J81">
-        <v>6.3896829648978333E-3</v>
+        <v>0.37574134004647641</v>
       </c>
       <c r="N81">
-        <v>0.14710689767898008</v>
+        <v>0.59785385794583545</v>
       </c>
       <c r="P81" s="54">
         <v>3</v>
@@ -3786,16 +3941,16 @@
     <row r="82" spans="2:16">
       <c r="B82" s="53"/>
       <c r="D82" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I82">
-        <v>0.30590000000000001</v>
+        <v>9.7849999999999993E-2</v>
       </c>
       <c r="J82">
-        <v>5.8006330714347756E-2</v>
+        <v>0.24169799553269838</v>
       </c>
       <c r="N82">
-        <v>0.14710689767898008</v>
+        <v>0.59785385794583545</v>
       </c>
       <c r="P82" s="54">
         <v>3</v>
@@ -3804,16 +3959,16 @@
     <row r="83" spans="2:16">
       <c r="B83" s="53"/>
       <c r="D83" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I83">
-        <v>0.30590000000000001</v>
+        <v>1.1875E-2</v>
       </c>
       <c r="J83">
-        <v>8.2023634476987304E-4</v>
+        <v>0.16808448388662312</v>
       </c>
       <c r="N83">
-        <v>0.14710689767898008</v>
+        <v>4.9263157894736844</v>
       </c>
       <c r="P83" s="54">
         <v>3</v>
@@ -3822,99 +3977,46 @@
     <row r="84" spans="2:16">
       <c r="B84" s="53"/>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I84">
-        <v>9.7849999999999993E-2</v>
+        <v>8.8349999999999998E-2</v>
       </c>
       <c r="J84">
-        <v>0.37574134004647641</v>
+        <v>4.9154789901687937E-2</v>
       </c>
       <c r="N84">
-        <v>0.59785385794583545</v>
+        <v>0.66213921901528017</v>
       </c>
       <c r="P84" s="54">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="2:16">
-      <c r="B85" s="53"/>
-      <c r="D85" t="s">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>9.7849999999999993E-2</v>
-      </c>
-      <c r="J85">
-        <v>0.24169799553269838</v>
-      </c>
-      <c r="N85">
-        <v>0.59785385794583545</v>
-      </c>
-      <c r="P85" s="54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16">
-      <c r="B86" s="53"/>
-      <c r="D86" t="s">
-        <v>44</v>
-      </c>
-      <c r="I86">
-        <v>1.1875E-2</v>
-      </c>
-      <c r="J86">
-        <v>0.16808448388662312</v>
-      </c>
-      <c r="N86">
-        <v>4.9263157894736844</v>
-      </c>
-      <c r="P86" s="54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="2:16">
-      <c r="B87" s="53"/>
-      <c r="D87" t="s">
-        <v>46</v>
-      </c>
-      <c r="I87">
-        <v>8.8349999999999998E-2</v>
-      </c>
-      <c r="J87">
-        <v>4.9154789901687937E-2</v>
-      </c>
-      <c r="N87">
-        <v>0.66213921901528017</v>
-      </c>
-      <c r="P87" s="54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16">
-      <c r="B88" s="55"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56">
+      <c r="B85" s="55"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56">
         <v>23</v>
       </c>
-      <c r="H88" s="56">
+      <c r="H85" s="56">
         <v>2.3E-2</v>
       </c>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="57"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="57"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3925,7 +4027,7 @@
   <dimension ref="A3:O21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3953,45 +4055,57 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="2:7" ht="13.8" thickBot="1">
+    <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1">
-      <c r="B5" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B5" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="93"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6">
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
         <v>1E-3</v>
       </c>
     </row>
@@ -4024,10 +4138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="C2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4042,22 +4156,19 @@
     <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="3:9">
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
+    <row r="3" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3">
         <v>2005</v>
@@ -4067,49 +4178,56 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>DemTechs_TPS!P4</f>
-        <v>PRI_BIOG_AGR</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" spans="3:9" ht="13.8" thickBot="1">
+      <c r="C4" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="3:9">
       <c r="C5" s="1" t="str">
         <f>DemTechs_TPS!P5</f>
-        <v>PRI_BIO_CH4_AGR</v>
+        <v>PRI_BIOG_AGR</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E5" s="58">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="E8" s="7"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="E10" s="7"/>
+    <row r="6" spans="3:9">
+      <c r="C6" s="1" t="str">
+        <f>DemTechs_TPS!P6</f>
+        <v>PRI_BIO_CH4_AGR</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4117,17 +4235,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170e58e9-e7cd-474a-92db-e9a604da91e6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003072D86D12BBB4489DD10379CB2942C4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafb5670a5d5d2b7ddeeb452f3034230">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="170e58e9-e7cd-474a-92db-e9a604da91e6" xmlns:ns3="2993e53c-5804-4a67-93fb-28b8362cd015" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b35fe0e36b0ef8e9c2fbdc19245eaaa" ns2:_="" ns3:_="">
     <xsd:import namespace="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
@@ -4322,6 +4429,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170e58e9-e7cd-474a-92db-e9a604da91e6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4332,17 +4450,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D04E0EA-BEE7-420B-B290-26DC7BB19F48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
-    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68B12A79-0E21-4334-A37C-08ECB90DAB45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4361,6 +4468,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D04E0EA-BEE7-420B-B290-26DC7BB19F48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
+    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A66D2C6-3728-4C12-95A4-1F5495D55354}">
   <ds:schemaRefs>

--- a/VT_REG_PRI_V01_AGR.xlsx
+++ b/VT_REG_PRI_V01_AGR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\2. 2026\BASIC_AGR\Basic_AGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B56AE-3237-4B02-B2FA-099CC86A3D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604CCEF-AB33-4FEE-AA4C-E7105F3C13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DemTechs_TPS" sheetId="136" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="140">
   <si>
     <t>CommName</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>Wskaźnik energii elektrycznej</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1071,6 +1074,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1096,7 +1184,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,9 +1218,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,9 +1227,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1181,22 +1263,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="17" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="17" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="17" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="17" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="17" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="14" borderId="0" xfId="17" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="17" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17"/>
-    <xf numFmtId="4" fontId="1" fillId="12" borderId="0" xfId="17" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="17" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="17" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1229,6 +1304,82 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="17" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="17" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="17" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="17" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="17" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="14" borderId="0" xfId="17" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="17" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="12" borderId="0" xfId="17" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="17" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="17" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% — akcent 5" xfId="1" builtinId="46"/>
@@ -1750,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:AD85"/>
+  <dimension ref="B2:AD85"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="54" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView zoomScale="67" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1769,1881 +1920,1930 @@
     <col min="10" max="10" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="38.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
     <col min="15" max="15" width="7.109375" customWidth="1"/>
     <col min="16" max="16" width="36.5546875" customWidth="1"/>
     <col min="17" max="17" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" customWidth="1"/>
     <col min="20" max="20" width="13.88671875" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
     <col min="26" max="26" width="21.88671875" customWidth="1"/>
     <col min="27" max="27" width="51.44140625" customWidth="1"/>
     <col min="29" max="29" width="17.77734375" customWidth="1"/>
+    <col min="30" max="30" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30">
-      <c r="D1" s="5" t="s">
+    <row r="2" spans="2:30">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="2:30">
-      <c r="B2" s="59" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="N2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="X2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+    </row>
+    <row r="3" spans="2:30">
+      <c r="B3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="X2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-    </row>
-    <row r="3" spans="2:30">
-      <c r="B3" s="70" t="s">
+      <c r="N3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" ht="28.2" customHeight="1" thickBot="1">
+      <c r="B4" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
+      <c r="N4" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="X4" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="90"/>
+    </row>
+    <row r="5" spans="2:30">
+      <c r="B5" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C5" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72">
+      <c r="D5" s="60"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63">
         <v>2391.308</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="72">
+      <c r="H5" s="21"/>
+      <c r="I5" s="63">
         <v>1</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J5" s="64">
         <v>1</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:30" ht="28.2" customHeight="1" thickBot="1">
-      <c r="B4" s="74"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="76">
-        <v>1</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="31"/>
-      <c r="N4" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="R4" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="S4" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="T4" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="U4" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="X4" s="26" t="s">
+      <c r="N5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="25"/>
+      <c r="X5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="Y4" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z4" s="24" t="s">
+      <c r="Y5" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="24" t="s">
+      <c r="AA5" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="AB4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" s="27"/>
-    </row>
-    <row r="5" spans="2:30">
-      <c r="B5" s="74"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="31"/>
-      <c r="N5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="27"/>
-      <c r="X5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA5" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="AB5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="AC5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD5" s="25"/>
+    </row>
+    <row r="6" spans="2:30">
+      <c r="B6" s="65"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="67">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="29"/>
+      <c r="N6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="27"/>
+      <c r="X6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z6" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA6" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="AD5" s="29"/>
-    </row>
-    <row r="6" spans="2:30">
-      <c r="B6" s="74"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="64" t="s">
+      <c r="AD6" s="27"/>
+    </row>
+    <row r="7" spans="2:30">
+      <c r="B7" s="65"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="29"/>
+      <c r="N7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="29"/>
+      <c r="X7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z7" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA7" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC7" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" s="29"/>
+    </row>
+    <row r="8" spans="2:30">
+      <c r="B8" s="65"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="77">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="68">
         <v>7.4</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="31"/>
-      <c r="N6" s="28" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="29"/>
+      <c r="L8" s="11"/>
+      <c r="N8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="29"/>
-      <c r="X6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z6" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA6" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC6" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD6" s="31"/>
-    </row>
-    <row r="7" spans="2:30">
-      <c r="B7" s="70" t="s">
+      <c r="O8" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="27"/>
+      <c r="X8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y8" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z8" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA8" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC8" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="27"/>
+    </row>
+    <row r="9" spans="2:30">
+      <c r="B9" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C9" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="72">
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="63">
         <v>3887.5880000000002</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="72">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="63">
         <v>1</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J9" s="64">
         <v>1</v>
       </c>
-      <c r="N7" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="31"/>
-      <c r="X7" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y7" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z7" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA7" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC7" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD7" s="29"/>
-    </row>
-    <row r="8" spans="2:30">
-      <c r="B8" s="79"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="76">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="N8" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="29"/>
-      <c r="X8" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y8" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z8" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA8" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD8" s="31"/>
-    </row>
-    <row r="9" spans="2:30">
-      <c r="B9" s="79"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="29"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P9" s="23" t="s">
+      <c r="O9" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="31"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="29"/>
       <c r="X9" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="Y9" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z9" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA9" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB9" s="22" t="s">
+      <c r="Y9" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z9" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA9" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AC9" s="22" t="s">
+      <c r="AC9" s="88" t="s">
         <v>84</v>
       </c>
       <c r="AD9" s="29"/>
     </row>
     <row r="10" spans="2:30">
-      <c r="B10" s="79"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="77">
-        <v>2.9279999999999999</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="29"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="67">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P10" s="22" t="s">
+      <c r="O10" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="29"/>
-      <c r="X10" s="30" t="s">
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="27"/>
+      <c r="X10" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="Y10" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB10" s="23" t="s">
+      <c r="Y10" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z10" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA10" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB10" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="AC10" s="23" t="s">
+      <c r="AC10" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="AD10" s="31"/>
+      <c r="AD10" s="27"/>
     </row>
     <row r="11" spans="2:30">
-      <c r="B11" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72">
-        <v>11727.41</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="72">
-        <v>1</v>
-      </c>
-      <c r="J11" s="73">
-        <v>1</v>
-      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" s="23" t="s">
+      <c r="O11" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="31"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="29"/>
       <c r="X11" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="Y11" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB11" s="22" t="s">
+      <c r="Y11" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z11" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA11" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AC11" s="22" t="s">
+      <c r="AC11" s="88" t="s">
         <v>84</v>
       </c>
       <c r="AD11" s="29"/>
     </row>
     <row r="12" spans="2:30">
-      <c r="B12" s="74"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="76">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="31"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="68">
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P12" s="22" t="s">
+      <c r="O12" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="22" t="s">
+      <c r="Q12" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="29"/>
-      <c r="X12" s="30" t="s">
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="27"/>
+      <c r="X12" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z12" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA12" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB12" s="23" t="s">
+      <c r="Y12" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z12" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA12" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB12" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD12" s="27"/>
+    </row>
+    <row r="13" spans="2:30">
+      <c r="B13" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63">
+        <v>11727.41</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="63">
+        <v>1</v>
+      </c>
+      <c r="J13" s="64">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="N13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P13" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="AC12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD12" s="31"/>
-    </row>
-    <row r="13" spans="2:30">
-      <c r="B13" s="74"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="31"/>
-      <c r="N13" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="31"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="29"/>
       <c r="X13" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="Y13" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z13" s="22" t="s">
+      <c r="Y13" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z13" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA13" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB13" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD13" s="29"/>
+    </row>
+    <row r="14" spans="2:30">
+      <c r="B14" s="65"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="67">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="29"/>
+      <c r="N14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="27"/>
+      <c r="X14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z14" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="AA13" s="22" t="s">
+      <c r="AA14" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="AB13" s="22" t="s">
+      <c r="AB14" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AC13" s="22" t="s">
+      <c r="AC14" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AD13" s="29"/>
-    </row>
-    <row r="14" spans="2:30">
-      <c r="B14" s="74"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="77">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="31"/>
-      <c r="N14" s="28" t="s">
+      <c r="AD14" s="27"/>
+    </row>
+    <row r="15" spans="2:30">
+      <c r="B15" s="65"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="29"/>
+      <c r="N15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="22" t="s">
+      <c r="O15" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P15" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="R14" s="22" t="s">
+      <c r="R15" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="29"/>
-      <c r="X14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y14" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z14" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA14" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD14" s="31"/>
-    </row>
-    <row r="15" spans="2:30">
-      <c r="B15" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="72">
-        <v>205774.511</v>
-      </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="72">
-        <v>1</v>
-      </c>
-      <c r="J15" s="73">
-        <v>1</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="31"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="29"/>
       <c r="X15" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z15" s="22" t="s">
+      <c r="Y15" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z15" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA15" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB15" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC15" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD15" s="29"/>
+    </row>
+    <row r="16" spans="2:30">
+      <c r="B16" s="65"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="68">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="29"/>
+      <c r="N16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="27"/>
+      <c r="X16" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z16" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="AA15" s="22" t="s">
+      <c r="AA16" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="AB15" s="22" t="s">
+      <c r="AB16" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AC15" s="22" t="s">
+      <c r="AC16" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AD15" s="29"/>
-    </row>
-    <row r="16" spans="2:30">
-      <c r="B16" s="83"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="76">
+      <c r="AD16" s="27"/>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="B17" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="63">
+        <v>205774.511</v>
+      </c>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="63">
         <v>1</v>
       </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="84"/>
-      <c r="N16" s="28" t="s">
+      <c r="J17" s="64">
+        <v>1</v>
+      </c>
+      <c r="N17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="22" t="s">
+      <c r="O17" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R17" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="29"/>
-      <c r="X16" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y16" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB16" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC16" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD16" s="31"/>
-    </row>
-    <row r="17" spans="2:30">
-      <c r="B17" s="83"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="84"/>
-      <c r="N17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="31"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="29"/>
       <c r="X17" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="Y17" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z17" s="22" t="s">
+      <c r="Y17" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z17" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA17" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB17" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC17" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD17" s="29"/>
+    </row>
+    <row r="18" spans="2:30">
+      <c r="B18" s="74"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="67">
+        <v>1</v>
+      </c>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="75"/>
+      <c r="N18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="27"/>
+      <c r="X18" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y18" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z18" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="AA17" s="22" t="s">
+      <c r="AA18" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="AB17" s="22" t="s">
+      <c r="AB18" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AC17" s="22" t="s">
+      <c r="AC18" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AD17" s="29"/>
-    </row>
-    <row r="18" spans="2:30">
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="42" t="s">
+      <c r="AD18" s="27"/>
+    </row>
+    <row r="19" spans="2:30">
+      <c r="B19" s="74"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="75"/>
+      <c r="N19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="29"/>
+      <c r="X19" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z19" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA19" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB19" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD19" s="29"/>
+    </row>
+    <row r="20" spans="2:30">
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88">
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79">
         <v>1.125E-2</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="89"/>
-      <c r="N18" s="28" t="s">
+      <c r="I20" s="78"/>
+      <c r="J20" s="80"/>
+      <c r="N20" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="27"/>
+      <c r="X20" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y20" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z20" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA20" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB20" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC20" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD20" s="35"/>
+    </row>
+    <row r="21" spans="2:30">
+      <c r="N21" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="29"/>
+    </row>
+    <row r="22" spans="2:30">
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="N22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P18" s="22" t="s">
+      <c r="O22" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="27"/>
+    </row>
+    <row r="23" spans="2:30">
+      <c r="B23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P23" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="R23" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="29"/>
+    </row>
+    <row r="24" spans="2:30" ht="53.4" thickBot="1">
+      <c r="B24" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="93"/>
+      <c r="K24" s="98"/>
+      <c r="N24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="27"/>
+    </row>
+    <row r="25" spans="2:30">
+      <c r="B25" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="37">
+        <v>2373.3000000000002</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="96">
+        <v>1</v>
+      </c>
+      <c r="J25" s="45"/>
+      <c r="K25" s="38">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="R25" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="29"/>
+    </row>
+    <row r="26" spans="2:30">
+      <c r="B26" s="42"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100">
+        <v>1</v>
+      </c>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="47"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="27"/>
+    </row>
+    <row r="27" spans="2:30">
+      <c r="B27" s="42"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="101">
+        <v>5.34</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P27" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="R27" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="29"/>
+    </row>
+    <row r="28" spans="2:30">
+      <c r="B28" s="42"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="102">
+        <v>0.78389961188850954</v>
+      </c>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="47"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P28" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="R28" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="27"/>
+    </row>
+    <row r="29" spans="2:30">
+      <c r="B29" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="96">
+        <v>675.3</v>
+      </c>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="96">
+        <v>1</v>
+      </c>
+      <c r="J29" s="99"/>
+      <c r="K29" s="39">
+        <v>1</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P29" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q29" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="29"/>
+    </row>
+    <row r="30" spans="2:30">
+      <c r="B30" s="42"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100">
+        <v>1</v>
+      </c>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="47"/>
+      <c r="N30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q30" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="27"/>
+    </row>
+    <row r="31" spans="2:30">
+      <c r="B31" s="42"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="101">
+        <v>4.4399999999999995</v>
+      </c>
+      <c r="K31" s="47"/>
+      <c r="N31" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P31" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q31" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="29"/>
+    </row>
+    <row r="32" spans="2:30">
+      <c r="B32" s="42"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="102">
+        <v>0.58652764282541103</v>
+      </c>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="47"/>
+      <c r="N32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P32" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="27"/>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="96">
+        <v>946.1</v>
+      </c>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="96">
+        <v>1</v>
+      </c>
+      <c r="J33" s="99"/>
+      <c r="K33" s="39">
+        <v>1</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="29"/>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="42"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="100">
+        <v>1</v>
+      </c>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="47"/>
+      <c r="N34" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="P34" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q34" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="R34" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="27"/>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="42"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="103">
+        <v>7.2099999999999991</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="N35" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="R35" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="32"/>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="42"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="102">
+        <v>1.0588164699503224</v>
+      </c>
+      <c r="I36" s="99"/>
+      <c r="J36" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="47"/>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="96">
+        <v>590.9</v>
+      </c>
+      <c r="G37" s="105"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="96">
+        <v>1</v>
+      </c>
+      <c r="J37" s="99"/>
+      <c r="K37" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="42"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100">
+        <v>1</v>
+      </c>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="47"/>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="42"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="103">
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="K39" s="47"/>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="42"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="102">
+        <v>0.52271761254019289</v>
+      </c>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="47"/>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="106">
+        <v>1389</v>
+      </c>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="96">
+        <v>1</v>
+      </c>
+      <c r="J41" s="99"/>
+      <c r="K41" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="42"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="100">
+        <v>1</v>
+      </c>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="47"/>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="42"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="101">
+        <v>4.46</v>
+      </c>
+      <c r="K43" s="47"/>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="42"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="102">
+        <v>0.80952866511879074</v>
+      </c>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="47"/>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="96">
+        <v>500.1</v>
+      </c>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="96">
+        <v>1</v>
+      </c>
+      <c r="J45" s="99"/>
+      <c r="K45" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" s="42"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="100">
+        <v>1</v>
+      </c>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="47"/>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="42"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="101">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="K47" s="47"/>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="42"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="102">
+        <v>0.60172868116376732</v>
+      </c>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="47"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="96">
+        <v>843.6</v>
+      </c>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="96">
+        <v>1</v>
+      </c>
+      <c r="J49" s="99"/>
+      <c r="K49" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="42"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="100">
+        <v>1</v>
+      </c>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="47"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="42"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="101">
+        <v>3.5100000000000002</v>
+      </c>
+      <c r="K51" s="47"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="42"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="Q18" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="29"/>
-      <c r="X18" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y18" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z18" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA18" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD18" s="31"/>
-    </row>
-    <row r="19" spans="2:30">
-      <c r="N19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P19" s="23" t="s">
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="102">
+        <v>3.2383000000000002</v>
+      </c>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="47"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="96">
+        <v>90.399999999999991</v>
+      </c>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="96">
+        <v>1</v>
+      </c>
+      <c r="J53" s="99"/>
+      <c r="K53" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="42"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="100">
+        <v>1</v>
+      </c>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="47"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="42"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="103">
+        <v>1.6149999999999998</v>
+      </c>
+      <c r="K55" s="47"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="43"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="Q19" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="31"/>
-      <c r="X19" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z19" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA19" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB19" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC19" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD19" s="37"/>
-    </row>
-    <row r="20" spans="2:30">
-      <c r="N20" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="29"/>
-    </row>
-    <row r="21" spans="2:30">
-      <c r="D21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="N21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="31"/>
-    </row>
-    <row r="22" spans="2:30">
-      <c r="B22" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="29"/>
-    </row>
-    <row r="23" spans="2:30">
-      <c r="B23" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="39">
-        <v>2373.3000000000002</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="38">
-        <v>1</v>
-      </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="40">
-        <v>1</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P23" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q23" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="R23" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="31"/>
-    </row>
-    <row r="24" spans="2:30">
-      <c r="B24" s="44"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62">
-        <v>1</v>
-      </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="49"/>
-      <c r="N24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="R24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="2:30">
-      <c r="B25" s="44"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="63">
-        <v>5.34</v>
-      </c>
-      <c r="K25" s="49"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P25" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="R25" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="31"/>
-    </row>
-    <row r="26" spans="2:30">
-      <c r="B26" s="44"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="64">
-        <v>0.78389961188850954</v>
-      </c>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="49"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="R26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="29"/>
-    </row>
-    <row r="27" spans="2:30">
-      <c r="B27" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="65">
-        <v>675.3</v>
-      </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="65">
-        <v>1</v>
-      </c>
-      <c r="J27" s="61"/>
-      <c r="K27" s="41">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P27" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q27" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="R27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="31"/>
-    </row>
-    <row r="28" spans="2:30">
-      <c r="B28" s="44"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62">
-        <v>1</v>
-      </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="49"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P28" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q28" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R28" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="29"/>
-    </row>
-    <row r="29" spans="2:30">
-      <c r="B29" s="44"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="63">
-        <v>4.4399999999999995</v>
-      </c>
-      <c r="K29" s="49"/>
-      <c r="N29" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P29" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q29" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="R29" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="31"/>
-    </row>
-    <row r="30" spans="2:30">
-      <c r="B30" s="44"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="64">
-        <v>0.58652764282541103</v>
-      </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="49"/>
-      <c r="N30" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P30" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q30" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R30" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="29"/>
-    </row>
-    <row r="31" spans="2:30">
-      <c r="B31" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="65">
-        <v>946.1</v>
-      </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="65">
-        <v>1</v>
-      </c>
-      <c r="J31" s="61"/>
-      <c r="K31" s="41">
-        <v>1</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P31" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q31" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="R31" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="31"/>
-    </row>
-    <row r="32" spans="2:30">
-      <c r="B32" s="44"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62">
-        <v>1</v>
-      </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="49"/>
-      <c r="N32" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P32" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R32" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="29"/>
-    </row>
-    <row r="33" spans="2:21">
-      <c r="B33" s="44"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="66">
-        <v>7.2099999999999991</v>
-      </c>
-      <c r="K33" s="49"/>
-      <c r="N33" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P33" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q33" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="R33" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="31"/>
-    </row>
-    <row r="34" spans="2:21">
-      <c r="B34" s="44"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="64">
-        <v>1.0588164699503224</v>
-      </c>
-      <c r="I34" s="61"/>
-      <c r="J34" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="K34" s="49"/>
-      <c r="N34" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P34" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q34" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R34" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="29"/>
-    </row>
-    <row r="35" spans="2:21">
-      <c r="B35" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="65">
-        <v>590.9</v>
-      </c>
-      <c r="G35" s="68"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="65">
-        <v>1</v>
-      </c>
-      <c r="J35" s="61"/>
-      <c r="K35" s="41">
-        <v>1</v>
-      </c>
-      <c r="N35" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="P35" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q35" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="R35" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="34"/>
-    </row>
-    <row r="36" spans="2:21">
-      <c r="B36" s="44"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62">
-        <v>1</v>
-      </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="49"/>
-    </row>
-    <row r="37" spans="2:21">
-      <c r="B37" s="44"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="66">
-        <v>3.5200000000000005</v>
-      </c>
-      <c r="K37" s="49"/>
-    </row>
-    <row r="38" spans="2:21">
-      <c r="B38" s="44"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="64">
-        <v>0.52271761254019289</v>
-      </c>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="49"/>
-    </row>
-    <row r="39" spans="2:21">
-      <c r="B39" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="69">
-        <v>1389</v>
-      </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="65">
-        <v>1</v>
-      </c>
-      <c r="J39" s="61"/>
-      <c r="K39" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21">
-      <c r="B40" s="44"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="62">
-        <v>1</v>
-      </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="49"/>
-    </row>
-    <row r="41" spans="2:21">
-      <c r="B41" s="44"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="63">
-        <v>4.46</v>
-      </c>
-      <c r="K41" s="49"/>
-    </row>
-    <row r="42" spans="2:21">
-      <c r="B42" s="44"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="64">
-        <v>0.80952866511879074</v>
-      </c>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="49"/>
-    </row>
-    <row r="43" spans="2:21">
-      <c r="B43" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="65">
-        <v>500.1</v>
-      </c>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="65">
-        <v>1</v>
-      </c>
-      <c r="J43" s="61"/>
-      <c r="K43" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21">
-      <c r="B44" s="44"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62">
-        <v>1</v>
-      </c>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="49"/>
-    </row>
-    <row r="45" spans="2:21">
-      <c r="B45" s="44"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="63">
-        <v>3.3200000000000003</v>
-      </c>
-      <c r="K45" s="49"/>
-    </row>
-    <row r="46" spans="2:21">
-      <c r="B46" s="44"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="64">
-        <v>0.60172868116376732</v>
-      </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="49"/>
-    </row>
-    <row r="47" spans="2:21">
-      <c r="B47" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="65">
-        <v>843.6</v>
-      </c>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="65">
-        <v>1</v>
-      </c>
-      <c r="J47" s="61"/>
-      <c r="K47" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21">
-      <c r="B48" s="44"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="62">
-        <v>1</v>
-      </c>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="49"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="44"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="63">
-        <v>3.5100000000000002</v>
-      </c>
-      <c r="K49" s="49"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="44"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="64">
-        <v>3.2383000000000002</v>
-      </c>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="49"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="65">
-        <v>90.399999999999991</v>
-      </c>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="65">
-        <v>1</v>
-      </c>
-      <c r="J51" s="61"/>
-      <c r="K51" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="44"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="62">
-        <v>1</v>
-      </c>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="49"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="44"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="66">
-        <v>1.6149999999999998</v>
-      </c>
-      <c r="K53" s="49"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="42">
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="40">
         <v>0.42731568584070806</v>
       </c>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="48"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="46"/>
     </row>
     <row r="69" spans="2:20">
       <c r="D69" s="5"/>
@@ -3748,36 +3948,36 @@
       <c r="P71" s="8"/>
     </row>
     <row r="72" spans="2:20">
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51">
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49">
         <v>0</v>
       </c>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51">
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49">
         <v>0.57499999999999996</v>
       </c>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51">
+      <c r="L72" s="49"/>
+      <c r="M72" s="49">
         <v>1</v>
       </c>
-      <c r="N72" s="51"/>
-      <c r="O72" s="51">
+      <c r="N72" s="49"/>
+      <c r="O72" s="49">
         <v>1</v>
       </c>
-      <c r="P72" s="52"/>
+      <c r="P72" s="50"/>
     </row>
     <row r="73" spans="2:20">
-      <c r="B73" s="53"/>
+      <c r="B73" s="51"/>
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -3790,12 +3990,12 @@
       <c r="N73">
         <v>0.14710689767898008</v>
       </c>
-      <c r="P73" s="54">
+      <c r="P73" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="2:20">
-      <c r="B74" s="53"/>
+      <c r="B74" s="51"/>
       <c r="D74" t="s">
         <v>46</v>
       </c>
@@ -3808,12 +4008,12 @@
       <c r="N74">
         <v>0.14710689767898008</v>
       </c>
-      <c r="P74" s="54">
+      <c r="P74" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="2:20">
-      <c r="B75" s="53"/>
+      <c r="B75" s="51"/>
       <c r="D75" t="s">
         <v>47</v>
       </c>
@@ -3826,12 +4026,12 @@
       <c r="N75">
         <v>0.11581521039763223</v>
       </c>
-      <c r="P75" s="54">
+      <c r="P75" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="2:20">
-      <c r="B76" s="53"/>
+      <c r="B76" s="51"/>
       <c r="D76" t="s">
         <v>48</v>
       </c>
@@ -3844,12 +4044,12 @@
       <c r="N76">
         <v>0.14710689767898008</v>
       </c>
-      <c r="P76" s="54">
+      <c r="P76" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="2:20">
-      <c r="B77" s="53"/>
+      <c r="B77" s="51"/>
       <c r="D77" t="s">
         <v>49</v>
       </c>
@@ -3862,12 +4062,12 @@
       <c r="N77">
         <v>0.14710689767898008</v>
       </c>
-      <c r="P77" s="54">
+      <c r="P77" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:20">
-      <c r="B78" s="53"/>
+      <c r="B78" s="51"/>
       <c r="D78" t="s">
         <v>50</v>
       </c>
@@ -3880,12 +4080,12 @@
       <c r="N78">
         <v>0.14710689767898008</v>
       </c>
-      <c r="P78" s="54">
+      <c r="P78" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="2:20">
-      <c r="B79" s="53"/>
+      <c r="B79" s="51"/>
       <c r="D79" t="s">
         <v>51</v>
       </c>
@@ -3898,12 +4098,12 @@
       <c r="N79">
         <v>0.14710689767898008</v>
       </c>
-      <c r="P79" s="54">
+      <c r="P79" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="2:20">
-      <c r="B80" s="53"/>
+      <c r="B80" s="51"/>
       <c r="D80" t="s">
         <v>52</v>
       </c>
@@ -3916,12 +4116,12 @@
       <c r="N80">
         <v>0.14710689767898008</v>
       </c>
-      <c r="P80" s="54">
+      <c r="P80" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="2:16">
-      <c r="B81" s="53"/>
+      <c r="B81" s="51"/>
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -3934,12 +4134,12 @@
       <c r="N81">
         <v>0.59785385794583545</v>
       </c>
-      <c r="P81" s="54">
+      <c r="P81" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="2:16">
-      <c r="B82" s="53"/>
+      <c r="B82" s="51"/>
       <c r="D82" t="s">
         <v>38</v>
       </c>
@@ -3952,12 +4152,12 @@
       <c r="N82">
         <v>0.59785385794583545</v>
       </c>
-      <c r="P82" s="54">
+      <c r="P82" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="2:16">
-      <c r="B83" s="53"/>
+      <c r="B83" s="51"/>
       <c r="D83" t="s">
         <v>40</v>
       </c>
@@ -3970,12 +4170,12 @@
       <c r="N83">
         <v>4.9263157894736844</v>
       </c>
-      <c r="P83" s="54">
+      <c r="P83" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="2:16">
-      <c r="B84" s="53"/>
+      <c r="B84" s="51"/>
       <c r="D84" t="s">
         <v>42</v>
       </c>
@@ -3988,22 +4188,22 @@
       <c r="N84">
         <v>0.66213921901528017</v>
       </c>
-      <c r="P84" s="54">
+      <c r="P84" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="2:16">
-      <c r="B85" s="55"/>
+      <c r="B85" s="53"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="56" t="s">
+      <c r="E85" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56">
+      <c r="F85" s="54"/>
+      <c r="G85" s="54">
         <v>23</v>
       </c>
-      <c r="H85" s="56">
+      <c r="H85" s="54">
         <v>2.3E-2</v>
       </c>
       <c r="I85" s="6"/>
@@ -4013,7 +4213,7 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
-      <c r="P85" s="57"/>
+      <c r="P85" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -4027,7 +4227,7 @@
   <dimension ref="A3:O21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4056,7 +4256,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="107" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4065,47 +4265,47 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="108" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" thickBot="1">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="93"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="112">
         <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" t="s">
+      <c r="B7" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="55">
         <v>1E-3</v>
       </c>
     </row>
@@ -4141,7 +4341,7 @@
   <dimension ref="C2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4164,13 +4364,13 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="113" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="114">
         <v>2005</v>
       </c>
       <c r="F3" s="14"/>
@@ -4179,11 +4379,11 @@
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="3:9" ht="13.8" thickBot="1">
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="116" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="14"/>
@@ -4192,26 +4392,26 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="117" t="str">
         <f>DemTechs_TPS!P5</f>
         <v>PRI_BIOG_AGR</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="58">
+      <c r="D5" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="119">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="120" t="str">
         <f>DemTechs_TPS!P6</f>
         <v>PRI_BIO_CH4_AGR</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="58">
+      <c r="D6" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="122">
         <v>1</v>
       </c>
     </row>
@@ -4235,6 +4435,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170e58e9-e7cd-474a-92db-e9a604da91e6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003072D86D12BBB4489DD10379CB2942C4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafb5670a5d5d2b7ddeeb452f3034230">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="170e58e9-e7cd-474a-92db-e9a604da91e6" xmlns:ns3="2993e53c-5804-4a67-93fb-28b8362cd015" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b35fe0e36b0ef8e9c2fbdc19245eaaa" ns2:_="" ns3:_="">
     <xsd:import namespace="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
@@ -4429,17 +4640,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170e58e9-e7cd-474a-92db-e9a604da91e6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4450,6 +4650,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D04E0EA-BEE7-420B-B290-26DC7BB19F48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
+    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68B12A79-0E21-4334-A37C-08ECB90DAB45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4468,17 +4679,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D04E0EA-BEE7-420B-B290-26DC7BB19F48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
-    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A66D2C6-3728-4C12-95A4-1F5495D55354}">
   <ds:schemaRefs>
